--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3900241.660498378</v>
+        <v>3899006.297494972</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285184</v>
+        <v>53890.85515285193</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>68.21015448122992</v>
+        <v>22.90612036710875</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>75.94512170722869</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>140.3787069980184</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>40.47627913313511</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.96662155595598</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>138.331445861729</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,52 +1060,52 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>55.71194092525318</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>45.5495227460362</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,16 +1215,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.56713651463427</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>41.8328348251606</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>291.718663542986</v>
+        <v>291.7186635429859</v>
       </c>
       <c r="C11" t="n">
         <v>274.2577136505129</v>
@@ -1376,19 +1376,19 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E11" t="n">
-        <v>290.9151919517672</v>
+        <v>290.9151919517671</v>
       </c>
       <c r="F11" t="n">
         <v>315.8608676212168</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0772286298367</v>
+        <v>322.0772286298366</v>
       </c>
       <c r="H11" t="n">
-        <v>225.8230740502262</v>
+        <v>225.8230740502261</v>
       </c>
       <c r="I11" t="n">
-        <v>34.24693463981492</v>
+        <v>34.2469346398149</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.50225960428294</v>
+        <v>22.50225960428339</v>
       </c>
       <c r="T11" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U11" t="n">
-        <v>160.1536483261576</v>
+        <v>160.1536483261575</v>
       </c>
       <c r="V11" t="n">
-        <v>236.7370803496403</v>
+        <v>236.7370803496402</v>
       </c>
       <c r="W11" t="n">
-        <v>258.2257905969184</v>
+        <v>258.2257905969183</v>
       </c>
       <c r="X11" t="n">
         <v>278.7159225579744</v>
       </c>
       <c r="Y11" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I12" t="n">
-        <v>48.67884742407817</v>
+        <v>48.67884742407819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.73095892851812</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S12" t="n">
         <v>149.7163148892172</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.81680206144267</v>
+        <v>88.81680206144263</v>
       </c>
       <c r="C13" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813317</v>
       </c>
       <c r="D13" t="n">
-        <v>57.60029489771773</v>
+        <v>57.60029489771769</v>
       </c>
       <c r="E13" t="n">
-        <v>55.41878452607455</v>
+        <v>55.4187845260745</v>
       </c>
       <c r="F13" t="n">
-        <v>54.40586990243662</v>
+        <v>54.40586990243658</v>
       </c>
       <c r="G13" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022734</v>
       </c>
       <c r="H13" t="n">
-        <v>62.39685106506718</v>
+        <v>62.39685106506717</v>
       </c>
       <c r="I13" t="n">
-        <v>34.61884066282541</v>
+        <v>34.61884066282538</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.69774406443833</v>
+        <v>41.69774406443828</v>
       </c>
       <c r="S13" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U13" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V13" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W13" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X13" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>315.8608676212168</v>
       </c>
       <c r="G14" t="n">
-        <v>311.189443711149</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H14" t="n">
         <v>225.8230740502262</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.63697916278539</v>
+        <v>22.50225960428204</v>
       </c>
       <c r="T14" t="n">
         <v>122.4049485207083</v>
@@ -1704,7 +1704,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I15" t="n">
-        <v>48.67884742407817</v>
+        <v>48.67884742407819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.73095892851812</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S15" t="n">
         <v>149.7163148892172</v>
@@ -1780,10 +1780,10 @@
         <v>75.98432295022738</v>
       </c>
       <c r="H16" t="n">
-        <v>62.39685106506718</v>
+        <v>62.39685106506721</v>
       </c>
       <c r="I16" t="n">
-        <v>34.61884066282541</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>319.0682473259365</v>
       </c>
       <c r="H17" t="n">
-        <v>222.8140927463269</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I17" t="n">
-        <v>31.23795333591474</v>
+        <v>31.23795333591475</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>100.8137164007008</v>
       </c>
       <c r="I18" t="n">
-        <v>48.67884742407817</v>
+        <v>48.67884742407819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.73095892851812</v>
+        <v>26.73095892851813</v>
       </c>
       <c r="S18" t="n">
         <v>149.7163148892172</v>
@@ -2020,7 +2020,7 @@
         <v>59.38786976116701</v>
       </c>
       <c r="I19" t="n">
-        <v>31.60985935892522</v>
+        <v>31.60985935892523</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7096822390857</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C20" t="n">
         <v>271.2487323466128</v>
       </c>
       <c r="D20" t="n">
-        <v>260.6588821962881</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9062106478678</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F20" t="n">
-        <v>312.8518863173166</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G20" t="n">
         <v>319.0682473259365</v>
@@ -2099,7 +2099,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I20" t="n">
-        <v>31.23795333591474</v>
+        <v>31.23795333591475</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.62799785888521</v>
+        <v>64.62799785888544</v>
       </c>
       <c r="T20" t="n">
         <v>119.3959672168082</v>
@@ -2144,7 +2144,7 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7069412540742</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y20" t="n">
         <v>292.2137792316588</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80782075754249</v>
+        <v>85.8078207575425</v>
       </c>
       <c r="C22" t="n">
-        <v>73.22266167423302</v>
+        <v>73.22266167423304</v>
       </c>
       <c r="D22" t="n">
-        <v>54.59131359381755</v>
+        <v>54.59131359381756</v>
       </c>
       <c r="E22" t="n">
-        <v>52.40980322217436</v>
+        <v>52.40980322217438</v>
       </c>
       <c r="F22" t="n">
-        <v>51.39688859853644</v>
+        <v>51.39688859853645</v>
       </c>
       <c r="G22" t="n">
-        <v>72.97534164632719</v>
+        <v>72.97534164632721</v>
       </c>
       <c r="H22" t="n">
-        <v>59.38786976116701</v>
+        <v>59.38786976116702</v>
       </c>
       <c r="I22" t="n">
-        <v>31.60985935892522</v>
+        <v>31.60985935892524</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.68876276053813</v>
+        <v>38.68876276053814</v>
       </c>
       <c r="S22" t="n">
-        <v>112.7136760890195</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T22" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2407892982195</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V22" t="n">
         <v>158.1134838994332</v>
@@ -2302,7 +2302,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X22" t="n">
-        <v>131.6854959646423</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y22" t="n">
         <v>124.5604939277</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7096822390857</v>
+        <v>288.7096822390858</v>
       </c>
       <c r="C23" t="n">
         <v>271.2487323466128</v>
       </c>
       <c r="D23" t="n">
-        <v>260.6588821962881</v>
+        <v>260.6588821962882</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9062106478669</v>
+        <v>287.906210647867</v>
       </c>
       <c r="F23" t="n">
-        <v>312.8518863173166</v>
+        <v>312.8518863173167</v>
       </c>
       <c r="G23" t="n">
         <v>319.0682473259365</v>
@@ -2336,7 +2336,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I23" t="n">
-        <v>31.23795333591474</v>
+        <v>31.23795333591475</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.62799785888521</v>
+        <v>64.62799785888522</v>
       </c>
       <c r="T23" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U23" t="n">
         <v>157.1446670222574</v>
@@ -2381,7 +2381,7 @@
         <v>255.2168092930182</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7069412540742</v>
+        <v>275.7069412540743</v>
       </c>
       <c r="Y23" t="n">
         <v>292.2137792316588</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80782075754249</v>
+        <v>85.8078207575425</v>
       </c>
       <c r="C25" t="n">
-        <v>73.22266167423302</v>
+        <v>73.22266167423304</v>
       </c>
       <c r="D25" t="n">
-        <v>54.59131359381755</v>
+        <v>54.59131359381756</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217436</v>
+        <v>52.40980322217438</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853644</v>
+        <v>51.39688859853645</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632719</v>
+        <v>72.97534164632721</v>
       </c>
       <c r="H25" t="n">
-        <v>59.38786976116701</v>
+        <v>59.38786976116702</v>
       </c>
       <c r="I25" t="n">
-        <v>31.60985935892522</v>
+        <v>31.60985935892524</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68876276053813</v>
+        <v>38.68876276053814</v>
       </c>
       <c r="S25" t="n">
-        <v>112.7136760890195</v>
+        <v>112.7136760890196</v>
       </c>
       <c r="T25" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2407892982195</v>
+        <v>192.2407892982196</v>
       </c>
       <c r="V25" t="n">
         <v>158.1134838994332</v>
@@ -2539,7 +2539,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6854959646423</v>
+        <v>131.6854959646424</v>
       </c>
       <c r="Y25" t="n">
         <v>124.5604939277</v>
@@ -2573,7 +2573,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I26" t="n">
-        <v>34.24693463981492</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>22.50225960428294</v>
+        <v>67.63697916278539</v>
       </c>
       <c r="T26" t="n">
-        <v>122.4049485207083</v>
+        <v>77.27022896220593</v>
       </c>
       <c r="U26" t="n">
         <v>160.1536483261576</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.81680206144267</v>
+        <v>88.81680206144269</v>
       </c>
       <c r="C28" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813322</v>
       </c>
       <c r="D28" t="n">
-        <v>57.60029489771773</v>
+        <v>57.60029489771775</v>
       </c>
       <c r="E28" t="n">
-        <v>55.41878452607455</v>
+        <v>55.41878452607456</v>
       </c>
       <c r="F28" t="n">
-        <v>54.40586990243662</v>
+        <v>54.40586990243663</v>
       </c>
       <c r="G28" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022739</v>
       </c>
       <c r="H28" t="n">
-        <v>62.39685106506718</v>
+        <v>62.39685106506721</v>
       </c>
       <c r="I28" t="n">
-        <v>34.61884066282541</v>
+        <v>34.61884066282542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.69774406443833</v>
+        <v>41.69774406443809</v>
       </c>
       <c r="S28" t="n">
         <v>115.7226573929197</v>
@@ -2804,13 +2804,13 @@
         <v>315.8608676212168</v>
       </c>
       <c r="G29" t="n">
-        <v>276.9425090713341</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H29" t="n">
         <v>225.8230740502262</v>
       </c>
       <c r="I29" t="n">
-        <v>34.24693463981492</v>
+        <v>34.2469346398149</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.63697916278539</v>
+        <v>22.50225960428294</v>
       </c>
       <c r="T29" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U29" t="n">
-        <v>160.1536483261576</v>
+        <v>160.1536483261575</v>
       </c>
       <c r="V29" t="n">
         <v>236.7370803496403</v>
@@ -2858,7 +2858,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y29" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.81680206144267</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C31" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D31" t="n">
-        <v>57.60029489771773</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E31" t="n">
-        <v>55.41878452607455</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F31" t="n">
-        <v>54.40586990243662</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G31" t="n">
-        <v>75.98432295022738</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H31" t="n">
-        <v>62.39685106506718</v>
+        <v>62.39685106506715</v>
       </c>
       <c r="I31" t="n">
-        <v>34.61884066282541</v>
+        <v>34.61884066282538</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.69774406443833</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S31" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T31" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U31" t="n">
         <v>195.2497706021197</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W31" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X31" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7096822390859</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C32" t="n">
         <v>271.2487323466128</v>
       </c>
       <c r="D32" t="n">
-        <v>260.6588821962882</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E32" t="n">
-        <v>287.9062106478671</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F32" t="n">
-        <v>312.8518863173167</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G32" t="n">
-        <v>319.0682473259366</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H32" t="n">
-        <v>222.8140927463261</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I32" t="n">
-        <v>31.2379533359148</v>
+        <v>31.23795333591606</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.62799785888527</v>
+        <v>64.62799785888521</v>
       </c>
       <c r="T32" t="n">
         <v>119.3959672168082</v>
@@ -3086,13 +3086,13 @@
         <v>157.1446670222574</v>
       </c>
       <c r="V32" t="n">
-        <v>233.7280990457402</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W32" t="n">
-        <v>255.2168092930183</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7069412540743</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y32" t="n">
         <v>292.2137792316588</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.80782075754254</v>
+        <v>85.80782075754249</v>
       </c>
       <c r="C34" t="n">
-        <v>73.22266167423308</v>
+        <v>73.22266167423302</v>
       </c>
       <c r="D34" t="n">
-        <v>54.5913135938176</v>
+        <v>54.59131359381755</v>
       </c>
       <c r="E34" t="n">
-        <v>52.40980322217442</v>
+        <v>52.40980322217436</v>
       </c>
       <c r="F34" t="n">
-        <v>51.39688859853649</v>
+        <v>51.39688859853644</v>
       </c>
       <c r="G34" t="n">
-        <v>72.97534164632725</v>
+        <v>72.97534164632719</v>
       </c>
       <c r="H34" t="n">
-        <v>59.38786976116707</v>
+        <v>59.38786976116701</v>
       </c>
       <c r="I34" t="n">
-        <v>31.60985935892528</v>
+        <v>31.60985935892522</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.68876276053818</v>
+        <v>38.68876276053813</v>
       </c>
       <c r="S34" t="n">
-        <v>112.7136760890196</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T34" t="n">
         <v>129.6851136835569</v>
       </c>
       <c r="U34" t="n">
-        <v>192.2407892982196</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V34" t="n">
         <v>158.1134838994332</v>
@@ -3250,7 +3250,7 @@
         <v>192.4988389121962</v>
       </c>
       <c r="X34" t="n">
-        <v>131.6854959646424</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y34" t="n">
         <v>124.5604939277</v>
@@ -3266,7 +3266,7 @@
         <v>288.7096822390857</v>
       </c>
       <c r="C35" t="n">
-        <v>271.2487323466128</v>
+        <v>271.2487323466127</v>
       </c>
       <c r="D35" t="n">
         <v>260.6588821962881</v>
@@ -3284,7 +3284,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I35" t="n">
-        <v>31.23795333591474</v>
+        <v>31.23795333591472</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.62799785888521</v>
+        <v>64.62799785888518</v>
       </c>
       <c r="T35" t="n">
         <v>119.3959672168081</v>
@@ -3332,7 +3332,7 @@
         <v>275.7069412540742</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2137792316588</v>
+        <v>292.2137792316587</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.80782075754249</v>
+        <v>85.80782075754247</v>
       </c>
       <c r="C37" t="n">
-        <v>73.22266167423302</v>
+        <v>73.22266167423301</v>
       </c>
       <c r="D37" t="n">
-        <v>54.59131359381755</v>
+        <v>54.59131359381753</v>
       </c>
       <c r="E37" t="n">
-        <v>52.40980322217436</v>
+        <v>52.40980322217435</v>
       </c>
       <c r="F37" t="n">
-        <v>51.39688859853644</v>
+        <v>51.39688859853642</v>
       </c>
       <c r="G37" t="n">
-        <v>72.97534164632719</v>
+        <v>72.97534164632718</v>
       </c>
       <c r="H37" t="n">
-        <v>59.38786976116701</v>
+        <v>59.387869761167</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60985935892522</v>
+        <v>31.60985935892521</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.68876276053813</v>
+        <v>38.68876276053811</v>
       </c>
       <c r="S37" t="n">
         <v>112.7136760890195</v>
@@ -3752,7 +3752,7 @@
         <v>315.8608676212168</v>
       </c>
       <c r="G41" t="n">
-        <v>276.9425090713345</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H41" t="n">
         <v>225.8230740502262</v>
@@ -3794,7 +3794,7 @@
         <v>122.4049485207083</v>
       </c>
       <c r="U41" t="n">
-        <v>160.1536483261576</v>
+        <v>115.0189287676553</v>
       </c>
       <c r="V41" t="n">
         <v>236.7370803496403</v>
@@ -3898,7 +3898,7 @@
         <v>88.81680206144267</v>
       </c>
       <c r="C43" t="n">
-        <v>76.23164297813307</v>
+        <v>76.23164297813321</v>
       </c>
       <c r="D43" t="n">
         <v>57.60029489771773</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>22.50225960428339</v>
+        <v>67.63697916278539</v>
       </c>
       <c r="T44" t="n">
         <v>122.4049485207083</v>
@@ -4034,7 +4034,7 @@
         <v>160.1536483261576</v>
       </c>
       <c r="V44" t="n">
-        <v>236.7370803496403</v>
+        <v>191.6023607911381</v>
       </c>
       <c r="W44" t="n">
         <v>258.2257905969184</v>
@@ -4135,7 +4135,7 @@
         <v>88.81680206144267</v>
       </c>
       <c r="C46" t="n">
-        <v>76.23164297813321</v>
+        <v>76.23164297813307</v>
       </c>
       <c r="D46" t="n">
         <v>57.60029489771773</v>
@@ -4150,7 +4150,7 @@
         <v>75.98432295022738</v>
       </c>
       <c r="H46" t="n">
-        <v>62.39685106506718</v>
+        <v>62.3968510650672</v>
       </c>
       <c r="I46" t="n">
         <v>34.61884066282541</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.69774406443833</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S46" t="n">
         <v>115.7226573929197</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.2027203719481</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="C2" t="n">
-        <v>297.2027203719481</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>297.2027203719481</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="W2" t="n">
-        <v>297.2027203719481</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="X2" t="n">
-        <v>297.2027203719481</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.2027203719481</v>
+        <v>494.3473184075753</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>588.0815197256143</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>439.147110064363</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>439.147110064363</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4413,46 +4413,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4592,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.7661011803829</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C6" t="n">
-        <v>158.7661011803829</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D6" t="n">
-        <v>158.7661011803829</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>158.7661011803829</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4656,10 +4656,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="W6" t="n">
-        <v>158.7661011803829</v>
+        <v>890.3534973733069</v>
       </c>
       <c r="X6" t="n">
-        <v>158.7661011803829</v>
+        <v>682.5019971677741</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.7661011803829</v>
+        <v>474.7416984028202</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="D8" t="n">
-        <v>502.8591282797204</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="E8" t="n">
-        <v>502.8591282797204</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4838,16 +4838,16 @@
         <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>269.6754205035162</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>502.6601697108322</v>
+        <v>478.9995557818393</v>
       </c>
       <c r="C9" t="n">
-        <v>328.2071404297052</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>878.6358054958541</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>878.6358054958541</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>878.6358054958541</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>878.6358054958541</v>
+        <v>647.2148928019074</v>
       </c>
       <c r="V9" t="n">
-        <v>878.6358054958541</v>
+        <v>647.2148928019074</v>
       </c>
       <c r="W9" t="n">
-        <v>878.6358054958541</v>
+        <v>647.2148928019074</v>
       </c>
       <c r="X9" t="n">
-        <v>878.6358054958541</v>
+        <v>647.2148928019074</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.8755067309003</v>
+        <v>647.2148928019074</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4951,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5024,10 +5024,10 @@
         <v>1270.867274702701</v>
       </c>
       <c r="E11" t="n">
-        <v>977.0135454584916</v>
+        <v>977.0135454584913</v>
       </c>
       <c r="F11" t="n">
-        <v>657.9621640229191</v>
+        <v>657.9621640229188</v>
       </c>
       <c r="G11" t="n">
         <v>332.631630053387</v>
@@ -5036,52 +5036,52 @@
         <v>104.5275148511383</v>
       </c>
       <c r="I11" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M11" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308521</v>
       </c>
       <c r="O11" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P11" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q11" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="R11" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="S11" t="n">
-        <v>3474.00302377406</v>
+        <v>3474.003023774058</v>
       </c>
       <c r="T11" t="n">
-        <v>3350.36166163193</v>
+        <v>3350.361661631929</v>
       </c>
       <c r="U11" t="n">
-        <v>3188.590299686316</v>
+        <v>3188.590299686315</v>
       </c>
       <c r="V11" t="n">
-        <v>2949.461935696781</v>
+        <v>2949.46193569678</v>
       </c>
       <c r="W11" t="n">
-        <v>2688.627803780702</v>
+        <v>2688.627803780701</v>
       </c>
       <c r="X11" t="n">
-        <v>2407.096568873657</v>
+        <v>2407.096568873656</v>
       </c>
       <c r="Y11" t="n">
         <v>2108.89176025188</v>
@@ -5115,22 +5115,22 @@
         <v>119.1052045322123</v>
       </c>
       <c r="I12" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J12" t="n">
-        <v>69.93465157859802</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K12" t="n">
-        <v>122.5309440662731</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L12" t="n">
-        <v>606.7076331071713</v>
+        <v>636.1210403766652</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.698213719151</v>
+        <v>1253.111620988645</v>
       </c>
       <c r="N12" t="n">
-        <v>1872.725712474615</v>
+        <v>1902.139119744109</v>
       </c>
       <c r="O12" t="n">
         <v>2039.533108956335</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.7999111568629</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C13" t="n">
-        <v>413.798251582991</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6161355246903</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6375652963321</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F13" t="n">
-        <v>244.6821411524568</v>
+        <v>244.6821411524564</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9302997885907</v>
+        <v>167.9302997885904</v>
       </c>
       <c r="H13" t="n">
-        <v>104.903177500644</v>
+        <v>104.9031775006438</v>
       </c>
       <c r="I13" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J13" t="n">
         <v>137.0106293959408</v>
@@ -5203,10 +5203,10 @@
         <v>319.1086914830887</v>
       </c>
       <c r="L13" t="n">
-        <v>582.4595660889145</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M13" t="n">
-        <v>865.6171716594311</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N13" t="n">
         <v>1149.619034811413</v>
@@ -5215,34 +5215,34 @@
         <v>1402.802877545183</v>
       </c>
       <c r="P13" t="n">
-        <v>1608.929321817166</v>
+        <v>1608.929321817165</v>
       </c>
       <c r="Q13" t="n">
         <v>1695.926483912368</v>
       </c>
       <c r="R13" t="n">
-        <v>1653.807550513946</v>
+        <v>1653.807550513945</v>
       </c>
       <c r="S13" t="n">
         <v>1536.915977389784</v>
       </c>
       <c r="T13" t="n">
-        <v>1402.881538008515</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U13" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V13" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4269359665452</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X13" t="n">
-        <v>709.3719084225629</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y13" t="n">
-        <v>580.5138526330676</v>
+        <v>580.5138526330671</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.635817725124</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C14" t="n">
-        <v>1491.607824138747</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D14" t="n">
-        <v>1225.276648886032</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4229196418223</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F14" t="n">
-        <v>612.3715382062497</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G14" t="n">
-        <v>298.0387667808467</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H14" t="n">
-        <v>69.93465157859802</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I14" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8279252593006</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733931</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L14" t="n">
         <v>1150.588225603151</v>
@@ -5291,37 +5291,37 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O14" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P14" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q14" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="R14" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="S14" t="n">
-        <v>3428.412397957391</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T14" t="n">
-        <v>3304.771035815261</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U14" t="n">
-        <v>3142.999673869647</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V14" t="n">
-        <v>2903.871309880112</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W14" t="n">
-        <v>2643.037177964033</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.505943056988</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y14" t="n">
-        <v>2063.301134435211</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.1052045322123</v>
       </c>
       <c r="I15" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J15" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K15" t="n">
-        <v>494.227791541764</v>
+        <v>122.530944066273</v>
       </c>
       <c r="L15" t="n">
-        <v>978.4044805826622</v>
+        <v>454.1738591511937</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.395061194642</v>
+        <v>1071.164439763173</v>
       </c>
       <c r="N15" t="n">
-        <v>1769.873609349988</v>
+        <v>1720.191938518637</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.191294646176</v>
+        <v>2247.509623814826</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q15" t="n">
         <v>2664.59575085658</v>
@@ -5422,25 +5422,25 @@
         <v>299.637565296332</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6821411524567</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9302997885902</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H16" t="n">
         <v>104.9031775006439</v>
       </c>
       <c r="I16" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J16" t="n">
-        <v>137.0106293959407</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830889</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L16" t="n">
-        <v>582.4595660889146</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M16" t="n">
         <v>865.6171716594311</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1792.950818160682</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C17" t="n">
         <v>1518.962199628749</v>
@@ -5498,13 +5498,13 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E17" t="n">
-        <v>964.8560452407139</v>
+        <v>964.8560452407137</v>
       </c>
       <c r="F17" t="n">
-        <v>648.844038859586</v>
+        <v>648.8440388595857</v>
       </c>
       <c r="G17" t="n">
-        <v>326.5528799444987</v>
+        <v>326.5528799444983</v>
       </c>
       <c r="H17" t="n">
         <v>101.4881397966937</v>
@@ -5513,10 +5513,10 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8279252593006</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K17" t="n">
-        <v>625.1936695733931</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L17" t="n">
         <v>1150.588225603151</v>
@@ -5528,7 +5528,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O17" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P17" t="n">
         <v>3270.319423338377</v>
@@ -5558,7 +5558,7 @@
         <v>2379.742193383656</v>
       </c>
       <c r="Y17" t="n">
-        <v>2084.576759816324</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H18" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I18" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J18" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K18" t="n">
-        <v>494.227791541764</v>
+        <v>384.3515287087258</v>
       </c>
       <c r="L18" t="n">
-        <v>978.4044805826622</v>
+        <v>868.528217749624</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.395061194642</v>
+        <v>1485.518798361603</v>
       </c>
       <c r="N18" t="n">
-        <v>1902.139119744109</v>
+        <v>2134.546297117068</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.533108956335</v>
+        <v>2562.787764768364</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q18" t="n">
         <v>2664.59575085658</v>
@@ -5671,25 +5671,25 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J19" t="n">
-        <v>69.93465157859802</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K19" t="n">
-        <v>252.6053416668076</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L19" t="n">
-        <v>518.9351077634944</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M19" t="n">
-        <v>805.0716048248722</v>
+        <v>877.5327376228755</v>
       </c>
       <c r="N19" t="n">
-        <v>1092.052359467716</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O19" t="n">
-        <v>1348.215093692346</v>
+        <v>1420.67622649035</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.320429455191</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q19" t="n">
         <v>1647.296483041254</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1792.950818160682</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C20" t="n">
         <v>1518.962199628749</v>
@@ -5735,10 +5735,10 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E20" t="n">
-        <v>964.856045240713</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595851</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G20" t="n">
         <v>326.5528799444978</v>
@@ -5780,22 +5780,22 @@
         <v>3431.451773011835</v>
       </c>
       <c r="T20" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U20" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V20" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W20" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X20" t="n">
-        <v>2379.742193383656</v>
+        <v>2379.742193383655</v>
       </c>
       <c r="Y20" t="n">
-        <v>2084.576759816324</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J21" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K21" t="n">
-        <v>494.227791541764</v>
+        <v>384.3515287087259</v>
       </c>
       <c r="L21" t="n">
-        <v>978.4044805826622</v>
+        <v>868.5282177496242</v>
       </c>
       <c r="M21" t="n">
-        <v>1134.347048082142</v>
+        <v>1485.518798361604</v>
       </c>
       <c r="N21" t="n">
-        <v>1512.215423660147</v>
+        <v>2134.546297117068</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.533108956335</v>
+        <v>2562.787764768364</v>
       </c>
       <c r="P21" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q21" t="n">
         <v>2664.59575085658</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.5242857757504</v>
+        <v>469.5242857757505</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5620012563231</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D22" t="n">
         <v>340.419260252467</v>
@@ -5896,7 +5896,7 @@
         <v>287.4800650785535</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5640159891227</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G22" t="n">
         <v>161.8515496797013</v>
@@ -5914,10 +5914,10 @@
         <v>325.0664744648111</v>
       </c>
       <c r="L22" t="n">
-        <v>518.9351077634944</v>
+        <v>591.3962405614978</v>
       </c>
       <c r="M22" t="n">
-        <v>805.0716048248722</v>
+        <v>877.5327376228756</v>
       </c>
       <c r="N22" t="n">
         <v>1092.052359467716</v>
@@ -5947,13 +5947,13 @@
         <v>1009.47645705058</v>
       </c>
       <c r="W22" t="n">
-        <v>815.0331854220988</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X22" t="n">
-        <v>682.017532932561</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.1988521975105</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C23" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D23" t="n">
         <v>1255.670399430478</v>
       </c>
       <c r="E23" t="n">
-        <v>964.856045240713</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F23" t="n">
-        <v>648.844038859585</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G23" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444974</v>
       </c>
       <c r="H23" t="n">
         <v>101.4881397966937</v>
@@ -5990,16 +5990,16 @@
         <v>243.8279252593006</v>
       </c>
       <c r="K23" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L23" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M23" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352348</v>
       </c>
       <c r="N23" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308523</v>
       </c>
       <c r="O23" t="n">
         <v>2865.989524423014</v>
@@ -6032,7 +6032,7 @@
         <v>2379.742193383655</v>
       </c>
       <c r="Y23" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="24">
@@ -6075,13 +6075,13 @@
         <v>978.4044805826622</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.7368755048</v>
+        <v>1134.347048082142</v>
       </c>
       <c r="N24" t="n">
-        <v>1512.215423660147</v>
+        <v>1783.374546837606</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.533108956335</v>
+        <v>2310.692232133795</v>
       </c>
       <c r="P24" t="n">
         <v>2445.748972877462</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.5242857757504</v>
+        <v>469.5242857757505</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5620012563231</v>
+        <v>395.5620012563232</v>
       </c>
       <c r="D25" t="n">
         <v>340.419260252467</v>
@@ -6133,7 +6133,7 @@
         <v>287.4800650785535</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5640159891227</v>
+        <v>235.5640159891228</v>
       </c>
       <c r="G25" t="n">
         <v>161.8515496797013</v>
@@ -6145,16 +6145,16 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J25" t="n">
-        <v>69.93465157859802</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K25" t="n">
-        <v>252.6053416668076</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L25" t="n">
-        <v>518.9351077634944</v>
+        <v>518.9351077634947</v>
       </c>
       <c r="M25" t="n">
-        <v>805.0716048248722</v>
+        <v>805.0716048248725</v>
       </c>
       <c r="N25" t="n">
         <v>1092.052359467716</v>
@@ -6184,13 +6184,13 @@
         <v>1009.47645705058</v>
       </c>
       <c r="W25" t="n">
-        <v>815.0331854220988</v>
+        <v>815.0331854220989</v>
       </c>
       <c r="X25" t="n">
-        <v>682.017532932561</v>
+        <v>682.0175329325612</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.1988521975105</v>
+        <v>556.1988521975106</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>657.9621640229191</v>
       </c>
       <c r="G26" t="n">
-        <v>332.631630053387</v>
+        <v>332.6316300533871</v>
       </c>
       <c r="H26" t="n">
-        <v>104.5275148511383</v>
+        <v>104.5275148511384</v>
       </c>
       <c r="I26" t="n">
         <v>69.93465157859802</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593002</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733925</v>
       </c>
       <c r="L26" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.58822560315</v>
       </c>
       <c r="M26" t="n">
-        <v>1751.797447352347</v>
+        <v>1751.797447352346</v>
       </c>
       <c r="N26" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308521</v>
       </c>
       <c r="O26" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P26" t="n">
         <v>3270.319423338377</v>
@@ -6251,7 +6251,7 @@
         <v>3496.732578929901</v>
       </c>
       <c r="S26" t="n">
-        <v>3474.00302377406</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T26" t="n">
         <v>3350.36166163193</v>
@@ -6306,19 +6306,19 @@
         <v>179.8109144116361</v>
       </c>
       <c r="K27" t="n">
-        <v>494.227791541764</v>
+        <v>232.4072068993111</v>
       </c>
       <c r="L27" t="n">
-        <v>978.4044805826622</v>
+        <v>349.4519540897847</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.7368755048</v>
+        <v>966.4425347017642</v>
       </c>
       <c r="N27" t="n">
-        <v>1512.215423660147</v>
+        <v>1615.470033457229</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.533108956335</v>
+        <v>2142.787718753417</v>
       </c>
       <c r="P27" t="n">
         <v>2445.748972877462</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.7999111568631</v>
+        <v>490.7999111568629</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829912</v>
+        <v>413.7982515829909</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6161355246905</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E28" t="n">
-        <v>299.6375652963324</v>
+        <v>299.637565296332</v>
       </c>
       <c r="F28" t="n">
-        <v>244.682141152457</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G28" t="n">
         <v>167.9302997885906</v>
@@ -6382,37 +6382,37 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J28" t="n">
-        <v>137.0106293959416</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K28" t="n">
-        <v>319.1086914830895</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L28" t="n">
-        <v>582.4595660889152</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M28" t="n">
-        <v>865.6171716594317</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N28" t="n">
-        <v>1149.619034811414</v>
+        <v>1149.619034811413</v>
       </c>
       <c r="O28" t="n">
         <v>1402.802877545183</v>
       </c>
       <c r="P28" t="n">
-        <v>1608.929321817167</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q28" t="n">
         <v>1695.926483912368</v>
       </c>
       <c r="R28" t="n">
-        <v>1653.807550513946</v>
+        <v>1653.807550513945</v>
       </c>
       <c r="S28" t="n">
-        <v>1536.915977389785</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T28" t="n">
-        <v>1402.881538008515</v>
+        <v>1402.881538008514</v>
       </c>
       <c r="U28" t="n">
         <v>1205.659547501323</v>
@@ -6421,13 +6421,13 @@
         <v>1042.909582649471</v>
       </c>
       <c r="W28" t="n">
-        <v>845.4269359665457</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X28" t="n">
-        <v>709.3719084225633</v>
+        <v>709.3719084225627</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330678</v>
+        <v>580.5138526330676</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1768.635817725124</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C29" t="n">
-        <v>1491.607824138747</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D29" t="n">
-        <v>1225.276648886032</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E29" t="n">
-        <v>931.4229196418223</v>
+        <v>977.0135454584915</v>
       </c>
       <c r="F29" t="n">
-        <v>612.3715382062497</v>
+        <v>657.962164022919</v>
       </c>
       <c r="G29" t="n">
         <v>332.631630053387</v>
@@ -6461,10 +6461,10 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8279252593004</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K29" t="n">
-        <v>625.1936695733931</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L29" t="n">
         <v>1150.588225603151</v>
@@ -6476,7 +6476,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O29" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P29" t="n">
         <v>3270.319423338377</v>
@@ -6488,25 +6488,25 @@
         <v>3496.732578929901</v>
       </c>
       <c r="S29" t="n">
-        <v>3428.412397957391</v>
+        <v>3474.00302377406</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.771035815261</v>
+        <v>3350.36166163193</v>
       </c>
       <c r="U29" t="n">
-        <v>3142.999673869647</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V29" t="n">
-        <v>2903.871309880112</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W29" t="n">
-        <v>2643.037177964033</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X29" t="n">
-        <v>2361.505943056988</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y29" t="n">
-        <v>2063.301134435211</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>69.93465157859802</v>
       </c>
       <c r="J30" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K30" t="n">
-        <v>494.227791541764</v>
+        <v>285.2753110638329</v>
       </c>
       <c r="L30" t="n">
-        <v>978.4044805826622</v>
+        <v>769.4520001047312</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.7368755048</v>
+        <v>1386.442580716711</v>
       </c>
       <c r="N30" t="n">
-        <v>1512.215423660147</v>
+        <v>2035.470079472175</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.533108956335</v>
+        <v>2562.787764768364</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q30" t="n">
         <v>2664.59575085658</v>
@@ -6610,7 +6610,7 @@
         <v>244.6821411524563</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9302997885902</v>
+        <v>167.93029978859</v>
       </c>
       <c r="H31" t="n">
         <v>104.9031775006439</v>
@@ -6622,13 +6622,13 @@
         <v>137.0106293959408</v>
       </c>
       <c r="K31" t="n">
-        <v>319.1086914830887</v>
+        <v>319.1086914830885</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889144</v>
+        <v>582.4595660889141</v>
       </c>
       <c r="M31" t="n">
-        <v>865.6171716594309</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N31" t="n">
         <v>1149.619034811413</v>
@@ -6652,19 +6652,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U31" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V31" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W31" t="n">
-        <v>845.4269359665452</v>
+        <v>845.4269359665445</v>
       </c>
       <c r="X31" t="n">
-        <v>709.3719084225629</v>
+        <v>709.3719084225622</v>
       </c>
       <c r="Y31" t="n">
-        <v>580.5138526330671</v>
+        <v>580.513852633067</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160682</v>
       </c>
       <c r="C32" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.96219962875</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.670399430477</v>
+        <v>1255.670399430479</v>
       </c>
       <c r="E32" t="n">
-        <v>964.8560452407128</v>
+        <v>964.8560452407144</v>
       </c>
       <c r="F32" t="n">
-        <v>648.844038859585</v>
+        <v>648.8440388595865</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444976</v>
+        <v>326.5528799444991</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966951</v>
       </c>
       <c r="I32" t="n">
         <v>69.93465157859804</v>
@@ -6701,7 +6701,7 @@
         <v>243.8279252593011</v>
       </c>
       <c r="K32" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733941</v>
       </c>
       <c r="L32" t="n">
         <v>1150.588225603152</v>
@@ -6725,25 +6725,25 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S32" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011836</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924151</v>
       </c>
       <c r="U32" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.117799032982</v>
       </c>
       <c r="V32" t="n">
-        <v>2916.028810097889</v>
+        <v>2916.028810097891</v>
       </c>
       <c r="W32" t="n">
-        <v>2658.234053236254</v>
+        <v>2658.234053236256</v>
       </c>
       <c r="X32" t="n">
-        <v>2379.742193383654</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816324</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>179.8109144116361</v>
       </c>
       <c r="K33" t="n">
-        <v>467.2224922893046</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L33" t="n">
-        <v>951.3991813302029</v>
+        <v>978.4044805826622</v>
       </c>
       <c r="M33" t="n">
-        <v>1568.389761942182</v>
+        <v>1595.395061194642</v>
       </c>
       <c r="N33" t="n">
-        <v>2217.417260697647</v>
+        <v>2244.422559950106</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.811249909873</v>
+        <v>2562.787764768364</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q33" t="n">
         <v>2664.59575085658</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>469.5242857757507</v>
+        <v>469.5242857757504</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5620012563234</v>
+        <v>395.5620012563231</v>
       </c>
       <c r="D34" t="n">
-        <v>340.4192602524673</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E34" t="n">
-        <v>287.4800650785537</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5640159891229</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G34" t="n">
-        <v>161.8515496797014</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H34" t="n">
         <v>101.8638024461993</v>
@@ -6856,52 +6856,52 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J34" t="n">
-        <v>69.93465157859804</v>
+        <v>139.989520886802</v>
       </c>
       <c r="K34" t="n">
-        <v>252.6053416668091</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L34" t="n">
-        <v>518.9351077634958</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M34" t="n">
-        <v>805.0716048248735</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N34" t="n">
-        <v>1092.052359467717</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O34" t="n">
-        <v>1348.215093692347</v>
+        <v>1420.67622649035</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.320429455192</v>
+        <v>1629.781562253194</v>
       </c>
       <c r="Q34" t="n">
-        <v>1647.296483041255</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R34" t="n">
-        <v>1608.216924697277</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S34" t="n">
-        <v>1494.36472662756</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T34" t="n">
-        <v>1363.369662300735</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U34" t="n">
-        <v>1169.187046847988</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V34" t="n">
         <v>1009.47645705058</v>
       </c>
       <c r="W34" t="n">
-        <v>815.0331854220992</v>
+        <v>815.0331854220988</v>
       </c>
       <c r="X34" t="n">
-        <v>682.0175329325614</v>
+        <v>682.017532932561</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.1988521975109</v>
+        <v>556.1988521975105</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C35" t="n">
-        <v>1518.962199628749</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D35" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E35" t="n">
-        <v>964.8560452407137</v>
+        <v>964.8560452407123</v>
       </c>
       <c r="F35" t="n">
-        <v>648.8440388595857</v>
+        <v>648.8440388595843</v>
       </c>
       <c r="G35" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444977</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4881397966938</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I35" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J35" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K35" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L35" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M35" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N35" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O35" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P35" t="n">
         <v>3270.319423338377</v>
       </c>
       <c r="Q35" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="R35" t="n">
-        <v>3496.732578929902</v>
+        <v>3496.732578929901</v>
       </c>
       <c r="S35" t="n">
         <v>3431.451773011835</v>
       </c>
       <c r="T35" t="n">
-        <v>3310.849785924151</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U35" t="n">
-        <v>3152.117799032982</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V35" t="n">
-        <v>2916.028810097891</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W35" t="n">
-        <v>2658.234053236256</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X35" t="n">
-        <v>2379.742193383656</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y35" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816322</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H36" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I36" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J36" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="K36" t="n">
-        <v>494.227791541764</v>
+        <v>359.9208661942575</v>
       </c>
       <c r="L36" t="n">
-        <v>611.2725387322375</v>
+        <v>844.0975552351557</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.263119344217</v>
+        <v>1461.088135847135</v>
       </c>
       <c r="N36" t="n">
-        <v>1877.290618099682</v>
+        <v>2110.1156346026</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.533108956335</v>
+        <v>2247.509623814826</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q36" t="n">
         <v>2664.59575085658</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.5242857757504</v>
+        <v>469.5242857757502</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5620012563231</v>
+        <v>395.562001256323</v>
       </c>
       <c r="D37" t="n">
-        <v>340.419260252467</v>
+        <v>340.4192602524669</v>
       </c>
       <c r="E37" t="n">
-        <v>287.4800650785535</v>
+        <v>287.4800650785534</v>
       </c>
       <c r="F37" t="n">
         <v>235.5640159891227</v>
@@ -7087,10 +7087,10 @@
         <v>161.8515496797013</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8638024461993</v>
+        <v>101.8638024461992</v>
       </c>
       <c r="I37" t="n">
-        <v>69.93465157859804</v>
+        <v>69.93465157859802</v>
       </c>
       <c r="J37" t="n">
         <v>139.989520886802</v>
@@ -7111,10 +7111,10 @@
         <v>1420.67622649035</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.320429455191</v>
+        <v>1557.32042945519</v>
       </c>
       <c r="Q37" t="n">
-        <v>1647.296483041254</v>
+        <v>1647.296483041253</v>
       </c>
       <c r="R37" t="n">
         <v>1608.216924697276</v>
@@ -7129,16 +7129,16 @@
         <v>1169.187046847987</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.47645705058</v>
+        <v>1009.476457050579</v>
       </c>
       <c r="W37" t="n">
-        <v>815.0331854220988</v>
+        <v>815.0331854220985</v>
       </c>
       <c r="X37" t="n">
-        <v>682.017532932561</v>
+        <v>682.0175329325608</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.1988521975105</v>
+        <v>556.1988521975103</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1792.950818160681</v>
+        <v>1792.950818160682</v>
       </c>
       <c r="C38" t="n">
         <v>1518.962199628749</v>
@@ -7157,25 +7157,25 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E38" t="n">
-        <v>964.8560452407132</v>
+        <v>964.8560452407137</v>
       </c>
       <c r="F38" t="n">
-        <v>648.8440388595852</v>
+        <v>648.8440388595857</v>
       </c>
       <c r="G38" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444983</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966938</v>
       </c>
       <c r="I38" t="n">
         <v>69.93465157859804</v>
       </c>
       <c r="J38" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1936695733943</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L38" t="n">
         <v>1150.588225603152</v>
@@ -7187,7 +7187,7 @@
         <v>2348.102865308523</v>
       </c>
       <c r="O38" t="n">
-        <v>2865.989524423015</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P38" t="n">
         <v>3270.319423338377</v>
@@ -7214,10 +7214,10 @@
         <v>2658.234053236256</v>
       </c>
       <c r="X38" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383656</v>
       </c>
       <c r="Y38" t="n">
-        <v>2084.576759816323</v>
+        <v>2084.576759816324</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7254,16 @@
         <v>179.8109144116361</v>
       </c>
       <c r="K39" t="n">
-        <v>232.4072068993111</v>
+        <v>494.227791541764</v>
       </c>
       <c r="L39" t="n">
-        <v>716.5838959402093</v>
+        <v>636.1210403766648</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.574476552189</v>
+        <v>1253.111620988644</v>
       </c>
       <c r="N39" t="n">
-        <v>1512.215423660147</v>
+        <v>1902.139119744109</v>
       </c>
       <c r="O39" t="n">
         <v>2039.533108956335</v>
@@ -7336,7 +7336,7 @@
         <v>325.066474464811</v>
       </c>
       <c r="L40" t="n">
-        <v>518.9351077634958</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M40" t="n">
         <v>805.0716048248735</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1768.635817725125</v>
+        <v>1814.226443541793</v>
       </c>
       <c r="C41" t="n">
-        <v>1491.607824138748</v>
+        <v>1537.198449955416</v>
       </c>
       <c r="D41" t="n">
-        <v>1225.276648886032</v>
+        <v>1270.867274702701</v>
       </c>
       <c r="E41" t="n">
-        <v>931.4229196418228</v>
+        <v>977.0135454584916</v>
       </c>
       <c r="F41" t="n">
-        <v>612.3715382062502</v>
+        <v>657.9621640229191</v>
       </c>
       <c r="G41" t="n">
         <v>332.6316300533871</v>
@@ -7409,19 +7409,19 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J41" t="n">
-        <v>243.8279252593012</v>
+        <v>243.8279252593009</v>
       </c>
       <c r="K41" t="n">
-        <v>625.1936695733938</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M41" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N41" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O41" t="n">
         <v>2865.989524423014</v>
@@ -7442,19 +7442,19 @@
         <v>3304.771035815261</v>
       </c>
       <c r="U41" t="n">
-        <v>3142.999673869648</v>
+        <v>3188.590299686316</v>
       </c>
       <c r="V41" t="n">
-        <v>2903.871309880112</v>
+        <v>2949.461935696781</v>
       </c>
       <c r="W41" t="n">
-        <v>2643.037177964033</v>
+        <v>2688.627803780702</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.505943056988</v>
+        <v>2407.096568873657</v>
       </c>
       <c r="Y41" t="n">
-        <v>2063.301134435211</v>
+        <v>2108.89176025188</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>69.93465157859804</v>
       </c>
       <c r="J42" t="n">
-        <v>179.8109144116361</v>
+        <v>69.93465157859804</v>
       </c>
       <c r="K42" t="n">
-        <v>232.4072068993111</v>
+        <v>122.5309440662731</v>
       </c>
       <c r="L42" t="n">
-        <v>716.5838959402093</v>
+        <v>606.7076331071713</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.574476552189</v>
+        <v>1223.698213719151</v>
       </c>
       <c r="N42" t="n">
-        <v>1512.215423660147</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.533108956335</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q42" t="n">
         <v>2664.59575085658</v>
@@ -7546,22 +7546,22 @@
         <v>490.7999111568627</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7982515829909</v>
+        <v>413.7982515829908</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6161355246902</v>
+        <v>355.61613552469</v>
       </c>
       <c r="E43" t="n">
-        <v>299.637565296332</v>
+        <v>299.6375652963319</v>
       </c>
       <c r="F43" t="n">
         <v>244.6821411524566</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9302997885906</v>
+        <v>167.9302997885905</v>
       </c>
       <c r="H43" t="n">
-        <v>104.9031775006439</v>
+        <v>104.9031775006438</v>
       </c>
       <c r="I43" t="n">
         <v>69.93465157859804</v>
@@ -7600,16 +7600,16 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U43" t="n">
-        <v>1205.659547501322</v>
+        <v>1205.659547501323</v>
       </c>
       <c r="V43" t="n">
-        <v>1042.90958264947</v>
+        <v>1042.909582649471</v>
       </c>
       <c r="W43" t="n">
-        <v>845.4269359665448</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225625</v>
+        <v>709.3719084225626</v>
       </c>
       <c r="Y43" t="n">
         <v>580.5138526330674</v>
@@ -7673,13 +7673,13 @@
         <v>3496.732578929902</v>
       </c>
       <c r="S44" t="n">
-        <v>3474.00302377406</v>
+        <v>3428.412397957391</v>
       </c>
       <c r="T44" t="n">
-        <v>3350.36166163193</v>
+        <v>3304.771035815261</v>
       </c>
       <c r="U44" t="n">
-        <v>3188.590299686316</v>
+        <v>3142.999673869648</v>
       </c>
       <c r="V44" t="n">
         <v>2949.461935696781</v>
@@ -7731,16 +7731,16 @@
         <v>232.4072068993111</v>
       </c>
       <c r="L45" t="n">
-        <v>716.5838959402093</v>
+        <v>561.4754852462405</v>
       </c>
       <c r="M45" t="n">
-        <v>872.5264634396889</v>
+        <v>1178.46606585822</v>
       </c>
       <c r="N45" t="n">
-        <v>1512.215423660147</v>
+        <v>1827.493564613684</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.533108956335</v>
+        <v>2354.811249909873</v>
       </c>
       <c r="P45" t="n">
         <v>2445.748972877462</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.7999111568622</v>
+        <v>490.7999111568627</v>
       </c>
       <c r="C46" t="n">
-        <v>413.7982515829903</v>
+        <v>413.7982515829909</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6161355246896</v>
+        <v>355.6161355246902</v>
       </c>
       <c r="E46" t="n">
-        <v>299.6375652963314</v>
+        <v>299.637565296332</v>
       </c>
       <c r="F46" t="n">
-        <v>244.682141152456</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G46" t="n">
-        <v>167.93029978859</v>
+        <v>167.9302997885906</v>
       </c>
       <c r="H46" t="n">
         <v>104.9031775006439</v>
@@ -7810,10 +7810,10 @@
         <v>319.1086914830887</v>
       </c>
       <c r="L46" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M46" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N46" t="n">
         <v>1149.619034811413</v>
@@ -7822,16 +7822,16 @@
         <v>1402.802877545183</v>
       </c>
       <c r="P46" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q46" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R46" t="n">
         <v>1653.807550513945</v>
       </c>
       <c r="S46" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T46" t="n">
         <v>1402.881538008514</v>
@@ -7843,13 +7843,13 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W46" t="n">
-        <v>845.4269359665445</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X46" t="n">
-        <v>709.3719084225622</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y46" t="n">
-        <v>580.5138526330669</v>
+        <v>580.5138526330674</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8544,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.10491126663302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>25.09949661053315</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,7 +8781,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>29.71051239342785</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>216.7658261560072</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>58.20197501383504</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663305</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,16 +9252,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>133.601525650627</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>293.7853317566359</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663302</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>205.4442701238974</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>293.7853317566353</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>205.4442701238973</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>44.56466442028093</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>205.4442701238973</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>214.1651829863193</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663302</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>164.3882494924847</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>205.4442701238973</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>237.1871569595894</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>182.7992076828598</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663302</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>239.7878001292772</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>25.09949661053255</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>25.09949661053258</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>4.204443386476157</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720741</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714833</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663302</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>4.204443386476157</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>164.3882494924848</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,19 +11379,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>214.1651829863189</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>469.9095071364761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.13471955850245</v>
+        <v>45.13471955850196</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10.88778491868766</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.24693463981492</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>45.13471955850336</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.13471955850245</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>45.13471955850241</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>45.13471955850258</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>45.13471955850243</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>45.13471955850218</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>45.13471955850225</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.13471955850201</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>45.13471955850221</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666325.1393814888</v>
+        <v>666325.1393814887</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666325.1393814888</v>
+        <v>666325.1393814887</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666325.1393814888</v>
+        <v>666325.1393814887</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176765</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>797012.8200327401</v>
+      </c>
+      <c r="F2" t="n">
+        <v>797012.8200327401</v>
+      </c>
+      <c r="G2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="H2" t="n">
         <v>800515.7256176766</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="J2" t="n">
         <v>797012.8200327402</v>
-      </c>
-      <c r="F2" t="n">
-        <v>797012.82003274</v>
-      </c>
-      <c r="G2" t="n">
-        <v>800515.7256176765</v>
-      </c>
-      <c r="H2" t="n">
-        <v>800515.7256176767</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176759</v>
-      </c>
-      <c r="J2" t="n">
-        <v>797012.8200327401</v>
       </c>
       <c r="K2" t="n">
         <v>797012.82003274</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="O2" t="n">
         <v>797012.8200327401</v>
       </c>
       <c r="P2" t="n">
-        <v>797012.8200327401</v>
+        <v>797012.8200327404</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>703589.2920394262</v>
+        <v>703589.292039426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.185043120148</v>
+        <v>2407.185043120137</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240251</v>
+        <v>4814.370086240274</v>
       </c>
       <c r="M3" t="n">
-        <v>157788.2115544437</v>
+        <v>157788.2115544436</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.77241015545</v>
+        <v>67997.77241015548</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
         <v>125890.8956465974</v>
@@ -26445,7 +26445,7 @@
         <v>125890.8956465974</v>
       </c>
       <c r="L4" t="n">
-        <v>127926.3453074194</v>
+        <v>127926.3453074195</v>
       </c>
       <c r="M4" t="n">
         <v>127926.3453074195</v>
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>72787.96136398586</v>
+        <v>72787.96136398584</v>
       </c>
       <c r="F5" t="n">
-        <v>72787.96136398586</v>
+        <v>72787.96136398584</v>
       </c>
       <c r="G5" t="n">
         <v>73040.92341322344</v>
@@ -26497,10 +26497,10 @@
         <v>72787.96136398586</v>
       </c>
       <c r="L5" t="n">
+        <v>73040.92341322346</v>
+      </c>
+      <c r="M5" t="n">
         <v>73040.92341322344</v>
-      </c>
-      <c r="M5" t="n">
-        <v>73040.92341322346</v>
       </c>
       <c r="N5" t="n">
         <v>73040.92341322344</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358869.65090365</v>
+        <v>358869.6509036503</v>
       </c>
       <c r="C6" t="n">
-        <v>439639.0824351978</v>
+        <v>439639.0824351977</v>
       </c>
       <c r="D6" t="n">
-        <v>439639.0824351975</v>
+        <v>439639.0824351977</v>
       </c>
       <c r="E6" t="n">
-        <v>-105255.3290172692</v>
+        <v>-105264.3108264613</v>
       </c>
       <c r="F6" t="n">
-        <v>598333.9630221567</v>
+        <v>598324.9812129647</v>
       </c>
       <c r="G6" t="n">
-        <v>597141.2718539134</v>
+        <v>597141.2718539127</v>
       </c>
       <c r="H6" t="n">
-        <v>599548.4568970338</v>
+        <v>599548.4568970337</v>
       </c>
       <c r="I6" t="n">
-        <v>599548.456897033</v>
+        <v>599548.4568970331</v>
       </c>
       <c r="J6" t="n">
-        <v>464869.0629697751</v>
+        <v>464860.0811605831</v>
       </c>
       <c r="K6" t="n">
-        <v>598333.9630221567</v>
+        <v>598324.9812129646</v>
       </c>
       <c r="L6" t="n">
-        <v>594734.0868107926</v>
+        <v>594734.0868107931</v>
       </c>
       <c r="M6" t="n">
-        <v>441760.2453425894</v>
+        <v>441760.2453425893</v>
       </c>
       <c r="N6" t="n">
-        <v>599548.4568970328</v>
+        <v>599548.4568970326</v>
       </c>
       <c r="O6" t="n">
-        <v>530336.1906120015</v>
+        <v>530327.2088028092</v>
       </c>
       <c r="P6" t="n">
-        <v>598333.9630221569</v>
+        <v>598324.981212965</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="F2" t="n">
         <v>91.01517812049462</v>
@@ -26701,22 +26701,22 @@
         <v>94.02415942439481</v>
       </c>
       <c r="H2" t="n">
+        <v>94.0241594243948</v>
+      </c>
+      <c r="I2" t="n">
+        <v>94.0241594243948</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91.01517812049461</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91.01517812049465</v>
+      </c>
+      <c r="L2" t="n">
         <v>94.02415942439481</v>
       </c>
-      <c r="I2" t="n">
-        <v>94.02415942439481</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91.01517812049462</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91.01517812049462</v>
-      </c>
-      <c r="L2" t="n">
-        <v>94.02415942439475</v>
-      </c>
       <c r="M2" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="N2" t="n">
         <v>94.02415942439475</v>
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="F3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="G3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="H3" t="n">
         <v>549.8197777449313</v>
@@ -26796,10 +26796,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>874.1831447324753</v>
+        <v>874.1831447324751</v>
       </c>
       <c r="F4" t="n">
-        <v>874.1831447324753</v>
+        <v>874.1831447324751</v>
       </c>
       <c r="G4" t="n">
         <v>874.1831447324753</v>
@@ -26820,7 +26820,7 @@
         <v>874.1831447324754</v>
       </c>
       <c r="M4" t="n">
-        <v>874.1831447324754</v>
+        <v>874.1831447324753</v>
       </c>
       <c r="N4" t="n">
         <v>874.1831447324754</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.008981303900185</v>
+        <v>3.008981303900171</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.00619681659444</v>
+        <v>88.00619681659448</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.017962607800314</v>
+        <v>6.017962607800342</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.99721551269431</v>
+        <v>84.99721551269435</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.8197777449313</v>
+        <v>549.8197777449312</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>633.1688558548162</v>
+        <v>633.168855854816</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548162</v>
+        <v>633.168855854816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.008981303900185</v>
+        <v>3.008981303900171</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.00619681659444</v>
+        <v>88.00619681659448</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548162</v>
+        <v>633.168855854816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>259.542103988905</v>
+        <v>304.8461381030261</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>69.12409068615518</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>65.39427820545905</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27579,7 +27579,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>178.6847310553635</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>297.0627372897776</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,16 +27698,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>27.19121259668715</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>113.3635372991906</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,7 +27825,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27856,25 +27856,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>298.9711006954298</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>303.6914459713768</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,16 +27935,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15.59069763800886</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>184.1085472558142</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="C11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="E11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="F11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="G11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="H11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="I11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.02442803654648</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="T11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="U11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="V11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="W11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="X11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="C13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="D13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="E13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="F13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="G13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="H13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="I13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="J13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="K13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="L13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="M13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="N13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="O13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="P13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="S13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="T13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="U13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="V13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="W13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="X13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049467</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.02442803654648</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S14" t="n">
         <v>91.01517812049462</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.02442803654648</v>
+        <v>11.02442803654651</v>
       </c>
       <c r="S17" t="n">
         <v>94.02415942439481</v>
@@ -28743,10 +28743,10 @@
         <v>94.02415942439481</v>
       </c>
       <c r="J19" t="n">
-        <v>23.26166517368375</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="K19" t="n">
-        <v>91.59359024277911</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L19" t="n">
         <v>94.02415942439481</v>
@@ -28764,7 +28764,7 @@
         <v>94.02415942439481</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.02415942439481</v>
+        <v>20.83109599206853</v>
       </c>
       <c r="R19" t="n">
         <v>94.02415942439481</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="C20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="D20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="E20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="F20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="G20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="H20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="T20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="U20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="V20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="W20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="X20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="C22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="D22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="E22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="F22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="G22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="H22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="J22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="K22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="L22" t="n">
-        <v>20.83109599206807</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="M22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="N22" t="n">
-        <v>94.02415942439481</v>
+        <v>20.83109599206838</v>
       </c>
       <c r="O22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="P22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="R22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="S22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="T22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="U22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="V22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="W22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="X22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="C23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="D23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="E23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="F23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="G23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="H23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="T23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="U23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="V23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="W23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="X23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="C25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="D25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="E25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="F25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="G25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="H25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="I25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="J25" t="n">
-        <v>23.26166517368375</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="K25" t="n">
-        <v>91.59359024277911</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="L25" t="n">
-        <v>94.02415942439481</v>
+        <v>20.83109599206836</v>
       </c>
       <c r="M25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="N25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="O25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="P25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="R25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="S25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="T25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="U25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="V25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="W25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="X25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.02415942439481</v>
+        <v>94.0241594243948</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y26" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="C28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="D28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="E28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="F28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="G28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="H28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="I28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="J28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="K28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="L28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="M28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="N28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="O28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="P28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="R28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="S28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="T28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="U28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="V28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="W28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="X28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049461</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.01517812049462</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y32" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J34" t="n">
-        <v>23.26166517368375</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="K34" t="n">
-        <v>91.59359024278059</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="M34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="N34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="P34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.02415942439475</v>
+        <v>20.83109599206783</v>
       </c>
       <c r="R34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="S34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.02415942439475</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="C35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="D35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="E35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="F35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="G35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="H35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>11.02442803654648</v>
       </c>
       <c r="S35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="T35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="U35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="V35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="W35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="X35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="C37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="D37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="E37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="F37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="G37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="H37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="I37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="J37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="K37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="L37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="M37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="N37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="O37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="P37" t="n">
-        <v>20.8310959920679</v>
+        <v>20.83109599206745</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="R37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="S37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="T37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="U37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="V37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="W37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="X37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.02415942439481</v>
+        <v>94.02415942439482</v>
       </c>
     </row>
     <row r="38">
@@ -30408,10 +30408,10 @@
         <v>94.02415942439475</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83109599206955</v>
+        <v>94.02415942439475</v>
       </c>
       <c r="M40" t="n">
-        <v>94.02415942439475</v>
+        <v>20.83109599206949</v>
       </c>
       <c r="N40" t="n">
         <v>94.02415942439475</v>
@@ -31756,43 +31756,43 @@
         <v>22.63654994504633</v>
       </c>
       <c r="I11" t="n">
-        <v>85.21377681009636</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J11" t="n">
         <v>187.5990607492618</v>
       </c>
       <c r="K11" t="n">
-        <v>281.1623620234043</v>
+        <v>281.1623620234042</v>
       </c>
       <c r="L11" t="n">
-        <v>348.8067721667669</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M11" t="n">
-        <v>388.1147419053454</v>
+        <v>388.1147419053453</v>
       </c>
       <c r="N11" t="n">
-        <v>394.3948441908441</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4158676483269</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P11" t="n">
         <v>317.8483268922344</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.6908563777003</v>
+        <v>238.6908563777002</v>
       </c>
       <c r="R11" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S11" t="n">
-        <v>50.36791230296533</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T11" t="n">
-        <v>9.675722922928387</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1768264611842994</v>
+        <v>0.1768264611842993</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I12" t="n">
-        <v>40.71778542733691</v>
+        <v>40.71778542733689</v>
       </c>
       <c r="J12" t="n">
-        <v>111.7327154000337</v>
+        <v>111.7327154000336</v>
       </c>
       <c r="K12" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L12" t="n">
-        <v>256.781397143989</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M12" t="n">
         <v>299.6517788709875</v>
@@ -31853,25 +31853,25 @@
         <v>307.5826698160064</v>
       </c>
       <c r="O12" t="n">
-        <v>281.3780517295216</v>
+        <v>281.3780517295215</v>
       </c>
       <c r="P12" t="n">
-        <v>225.8306932401776</v>
+        <v>225.8306932401775</v>
       </c>
       <c r="Q12" t="n">
         <v>150.961837844231</v>
       </c>
       <c r="R12" t="n">
-        <v>73.42687522412501</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S12" t="n">
         <v>21.96685621462059</v>
       </c>
       <c r="T12" t="n">
-        <v>4.766833733467847</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07780468552994314</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9914782877367613</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H13" t="n">
-        <v>8.815143321877757</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I13" t="n">
-        <v>29.81645614393825</v>
+        <v>29.81645614393824</v>
       </c>
       <c r="J13" t="n">
-        <v>70.09751494298902</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K13" t="n">
         <v>115.1917501570528</v>
       </c>
       <c r="L13" t="n">
-        <v>147.4057810695182</v>
+        <v>147.4057810695181</v>
       </c>
       <c r="M13" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N13" t="n">
-        <v>151.7232183406629</v>
+        <v>151.7232183406628</v>
       </c>
       <c r="O13" t="n">
-        <v>140.1409492521016</v>
+        <v>140.1409492521015</v>
       </c>
       <c r="P13" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.02278643948463</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R13" t="n">
-        <v>44.58046919223655</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S13" t="n">
-        <v>17.27876252355792</v>
+        <v>17.27876252355791</v>
       </c>
       <c r="T13" t="n">
         <v>4.236316320329797</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05408063387655068</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,43 +31993,43 @@
         <v>22.63654994504633</v>
       </c>
       <c r="I14" t="n">
-        <v>85.21377681009636</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J14" t="n">
         <v>187.5990607492618</v>
       </c>
       <c r="K14" t="n">
-        <v>281.1623620234043</v>
+        <v>281.1623620234042</v>
       </c>
       <c r="L14" t="n">
-        <v>348.8067721667669</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M14" t="n">
-        <v>388.1147419053454</v>
+        <v>388.1147419053453</v>
       </c>
       <c r="N14" t="n">
-        <v>394.3948441908441</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4158676483269</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P14" t="n">
         <v>317.8483268922344</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.6908563777003</v>
+        <v>238.6908563777002</v>
       </c>
       <c r="R14" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S14" t="n">
-        <v>50.36791230296533</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T14" t="n">
-        <v>9.675722922928387</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1768264611842994</v>
+        <v>0.1768264611842993</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I15" t="n">
-        <v>40.71778542733691</v>
+        <v>40.71778542733689</v>
       </c>
       <c r="J15" t="n">
-        <v>111.7327154000337</v>
+        <v>111.7327154000336</v>
       </c>
       <c r="K15" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L15" t="n">
-        <v>256.781397143989</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M15" t="n">
         <v>299.6517788709875</v>
@@ -32090,25 +32090,25 @@
         <v>307.5826698160064</v>
       </c>
       <c r="O15" t="n">
-        <v>281.3780517295216</v>
+        <v>281.3780517295215</v>
       </c>
       <c r="P15" t="n">
-        <v>225.8306932401776</v>
+        <v>225.8306932401775</v>
       </c>
       <c r="Q15" t="n">
         <v>150.961837844231</v>
       </c>
       <c r="R15" t="n">
-        <v>73.42687522412501</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S15" t="n">
         <v>21.96685621462059</v>
       </c>
       <c r="T15" t="n">
-        <v>4.766833733467847</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07780468552994314</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9914782877367613</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H16" t="n">
-        <v>8.815143321877757</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I16" t="n">
-        <v>29.81645614393825</v>
+        <v>29.81645614393824</v>
       </c>
       <c r="J16" t="n">
-        <v>70.09751494298902</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K16" t="n">
         <v>115.1917501570528</v>
       </c>
       <c r="L16" t="n">
-        <v>147.4057810695182</v>
+        <v>147.4057810695181</v>
       </c>
       <c r="M16" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N16" t="n">
-        <v>151.7232183406629</v>
+        <v>151.7232183406628</v>
       </c>
       <c r="O16" t="n">
-        <v>140.1409492521016</v>
+        <v>140.1409492521015</v>
       </c>
       <c r="P16" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.02278643948463</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R16" t="n">
-        <v>44.58046919223655</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S16" t="n">
-        <v>17.27876252355792</v>
+        <v>17.27876252355791</v>
       </c>
       <c r="T16" t="n">
         <v>4.236316320329797</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05408063387655068</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,43 +32230,43 @@
         <v>22.63654994504633</v>
       </c>
       <c r="I17" t="n">
-        <v>85.21377681009636</v>
+        <v>85.21377681009635</v>
       </c>
       <c r="J17" t="n">
         <v>187.5990607492618</v>
       </c>
       <c r="K17" t="n">
-        <v>281.1623620234043</v>
+        <v>281.1623620234042</v>
       </c>
       <c r="L17" t="n">
-        <v>348.8067721667669</v>
+        <v>348.8067721667668</v>
       </c>
       <c r="M17" t="n">
-        <v>388.1147419053454</v>
+        <v>388.1147419053453</v>
       </c>
       <c r="N17" t="n">
-        <v>394.3948441908441</v>
+        <v>394.394844190844</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4158676483269</v>
+        <v>372.4158676483268</v>
       </c>
       <c r="P17" t="n">
         <v>317.8483268922344</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.6908563777003</v>
+        <v>238.6908563777002</v>
       </c>
       <c r="R17" t="n">
         <v>138.8446899046032</v>
       </c>
       <c r="S17" t="n">
-        <v>50.36791230296533</v>
+        <v>50.36791230296532</v>
       </c>
       <c r="T17" t="n">
-        <v>9.675722922928387</v>
+        <v>9.675722922928385</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1768264611842994</v>
+        <v>0.1768264611842993</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>11.42172783579565</v>
       </c>
       <c r="I18" t="n">
-        <v>40.71778542733691</v>
+        <v>40.71778542733689</v>
       </c>
       <c r="J18" t="n">
-        <v>111.7327154000337</v>
+        <v>111.7327154000336</v>
       </c>
       <c r="K18" t="n">
         <v>190.9690071437277</v>
       </c>
       <c r="L18" t="n">
-        <v>256.781397143989</v>
+        <v>256.7813971439889</v>
       </c>
       <c r="M18" t="n">
         <v>299.6517788709875</v>
@@ -32327,25 +32327,25 @@
         <v>307.5826698160064</v>
       </c>
       <c r="O18" t="n">
-        <v>281.3780517295216</v>
+        <v>281.3780517295215</v>
       </c>
       <c r="P18" t="n">
-        <v>225.8306932401776</v>
+        <v>225.8306932401775</v>
       </c>
       <c r="Q18" t="n">
         <v>150.961837844231</v>
       </c>
       <c r="R18" t="n">
-        <v>73.42687522412501</v>
+        <v>73.426875224125</v>
       </c>
       <c r="S18" t="n">
         <v>21.96685621462059</v>
       </c>
       <c r="T18" t="n">
-        <v>4.766833733467847</v>
+        <v>4.766833733467846</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07780468552994314</v>
+        <v>0.07780468552994313</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9914782877367613</v>
+        <v>0.9914782877367612</v>
       </c>
       <c r="H19" t="n">
-        <v>8.815143321877757</v>
+        <v>8.815143321877756</v>
       </c>
       <c r="I19" t="n">
-        <v>29.81645614393825</v>
+        <v>29.81645614393824</v>
       </c>
       <c r="J19" t="n">
-        <v>70.09751494298902</v>
+        <v>70.09751494298901</v>
       </c>
       <c r="K19" t="n">
         <v>115.1917501570528</v>
       </c>
       <c r="L19" t="n">
-        <v>147.4057810695182</v>
+        <v>147.4057810695181</v>
       </c>
       <c r="M19" t="n">
         <v>155.418728322227</v>
       </c>
       <c r="N19" t="n">
-        <v>151.7232183406629</v>
+        <v>151.7232183406628</v>
       </c>
       <c r="O19" t="n">
-        <v>140.1409492521016</v>
+        <v>140.1409492521015</v>
       </c>
       <c r="P19" t="n">
         <v>119.9147921822715</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.02278643948463</v>
+        <v>83.02278643948462</v>
       </c>
       <c r="R19" t="n">
-        <v>44.58046919223655</v>
+        <v>44.58046919223654</v>
       </c>
       <c r="S19" t="n">
-        <v>17.27876252355792</v>
+        <v>17.27876252355791</v>
       </c>
       <c r="T19" t="n">
         <v>4.236316320329797</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05408063387655068</v>
+        <v>0.05408063387655067</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35264,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.6497713946493</v>
+        <v>175.6497713946492</v>
       </c>
       <c r="K11" t="n">
-        <v>385.2179235495885</v>
+        <v>385.2179235495884</v>
       </c>
       <c r="L11" t="n">
-        <v>530.7015717472301</v>
+        <v>530.70157174723</v>
       </c>
       <c r="M11" t="n">
         <v>607.2820421709051</v>
       </c>
       <c r="N11" t="n">
-        <v>602.3287050062373</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O11" t="n">
-        <v>523.1178374893855</v>
+        <v>523.1178374893854</v>
       </c>
       <c r="P11" t="n">
         <v>408.4140393084475</v>
       </c>
       <c r="Q11" t="n">
-        <v>228.7001571631555</v>
+        <v>228.7001571631554</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K12" t="n">
-        <v>53.12756816936874</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L12" t="n">
-        <v>489.0673626675739</v>
+        <v>143.3265139746479</v>
       </c>
       <c r="M12" t="n">
-        <v>623.2228086989692</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N12" t="n">
-        <v>655.5833320762267</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O12" t="n">
-        <v>168.492319678505</v>
+        <v>138.7818072850771</v>
       </c>
       <c r="P12" t="n">
         <v>410.3190544657845</v>
       </c>
       <c r="Q12" t="n">
-        <v>221.0573514940586</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.75351294681087</v>
+        <v>67.7535129468109</v>
       </c>
       <c r="K13" t="n">
         <v>183.9374364516646</v>
@@ -35586,7 +35586,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.87592130828487</v>
+        <v>87.8759213082849</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.6497713946493</v>
+        <v>175.6497713946492</v>
       </c>
       <c r="K14" t="n">
-        <v>385.2179235495885</v>
+        <v>385.2179235495884</v>
       </c>
       <c r="L14" t="n">
-        <v>530.7015717472301</v>
+        <v>530.70157174723</v>
       </c>
       <c r="M14" t="n">
         <v>607.2820421709051</v>
       </c>
       <c r="N14" t="n">
-        <v>602.3287050062373</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O14" t="n">
-        <v>523.1178374893855</v>
+        <v>523.1178374893854</v>
       </c>
       <c r="P14" t="n">
         <v>408.4140393084475</v>
       </c>
       <c r="Q14" t="n">
-        <v>228.7001571631555</v>
+        <v>228.7001571631554</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>317.5928051819474</v>
+        <v>53.12756816936869</v>
       </c>
       <c r="L15" t="n">
-        <v>489.0673626675739</v>
+        <v>334.9928435201219</v>
       </c>
       <c r="M15" t="n">
-        <v>623.2228086989692</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N15" t="n">
-        <v>176.2409577326731</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O15" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P15" t="n">
-        <v>150.0582608396824</v>
+        <v>410.3190544657845</v>
       </c>
       <c r="Q15" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820944</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.75351294681087</v>
+        <v>67.75351294681086</v>
       </c>
       <c r="K16" t="n">
         <v>183.9374364516646</v>
@@ -35817,13 +35817,13 @@
         <v>286.8705688403861</v>
       </c>
       <c r="O16" t="n">
-        <v>255.7412552866359</v>
+        <v>255.7412552866358</v>
       </c>
       <c r="P16" t="n">
         <v>208.2085295676596</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.87592130828487</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.6497713946493</v>
+        <v>175.6497713946492</v>
       </c>
       <c r="K17" t="n">
-        <v>385.2179235495885</v>
+        <v>385.2179235495884</v>
       </c>
       <c r="L17" t="n">
-        <v>530.7015717472301</v>
+        <v>530.70157174723</v>
       </c>
       <c r="M17" t="n">
         <v>607.2820421709051</v>
       </c>
       <c r="N17" t="n">
-        <v>602.3287050062373</v>
+        <v>602.3287050062372</v>
       </c>
       <c r="O17" t="n">
-        <v>523.1178374893855</v>
+        <v>523.1178374893854</v>
       </c>
       <c r="P17" t="n">
         <v>408.4140393084475</v>
       </c>
       <c r="Q17" t="n">
-        <v>228.7001571631555</v>
+        <v>228.7001571631554</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>317.5928051819474</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L18" t="n">
         <v>489.0673626675739</v>
       </c>
       <c r="M18" t="n">
-        <v>623.2228086989692</v>
+        <v>623.2228086989691</v>
       </c>
       <c r="N18" t="n">
-        <v>309.8424833833001</v>
+        <v>655.5833320762266</v>
       </c>
       <c r="O18" t="n">
-        <v>138.7818072850772</v>
+        <v>432.5671390417129</v>
       </c>
       <c r="P18" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584729</v>
       </c>
       <c r="Q18" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820944</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K19" t="n">
-        <v>184.5158485739491</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L19" t="n">
         <v>269.0199657542291</v>
       </c>
       <c r="M19" t="n">
-        <v>289.0267647084625</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N19" t="n">
-        <v>289.8795501442863</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O19" t="n">
         <v>258.750236590536</v>
@@ -36060,7 +36060,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.88490261218506</v>
+        <v>17.69183917985877</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>317.5928051819474</v>
@@ -36206,19 +36206,19 @@
         <v>489.0673626675739</v>
       </c>
       <c r="M21" t="n">
-        <v>157.5177449489692</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N21" t="n">
-        <v>381.6852278565705</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O21" t="n">
-        <v>532.6441265618066</v>
+        <v>432.5671390417125</v>
       </c>
       <c r="P21" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584732</v>
       </c>
       <c r="Q21" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820947</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.76249425071106</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K22" t="n">
-        <v>186.9464177555648</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L22" t="n">
-        <v>195.8269023219024</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M22" t="n">
-        <v>289.0267647084625</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N22" t="n">
-        <v>289.8795501442863</v>
+        <v>216.6864867119598</v>
       </c>
       <c r="O22" t="n">
         <v>258.750236590536</v>
@@ -36297,7 +36297,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.88490261218506</v>
+        <v>90.88490261218504</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>489.0673626675739</v>
       </c>
       <c r="M24" t="n">
-        <v>362.9620150728665</v>
+        <v>157.5177449489692</v>
       </c>
       <c r="N24" t="n">
-        <v>176.2409577326731</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O24" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P24" t="n">
-        <v>410.3190544657845</v>
+        <v>136.4209502461283</v>
       </c>
       <c r="Q24" t="n">
         <v>221.0573514940586</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>70.76249425071104</v>
       </c>
       <c r="K25" t="n">
-        <v>184.5158485739491</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L25" t="n">
-        <v>269.0199657542291</v>
+        <v>195.8269023219027</v>
       </c>
       <c r="M25" t="n">
-        <v>289.0267647084625</v>
+        <v>289.0267647084624</v>
       </c>
       <c r="N25" t="n">
         <v>289.8795501442863</v>
@@ -36534,7 +36534,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.88490261218506</v>
+        <v>90.88490261218504</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K27" t="n">
-        <v>317.5928051819474</v>
+        <v>53.12756816936874</v>
       </c>
       <c r="L27" t="n">
-        <v>489.0673626675739</v>
+        <v>118.2270173641148</v>
       </c>
       <c r="M27" t="n">
-        <v>362.9620150728665</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N27" t="n">
-        <v>176.2409577326731</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O27" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P27" t="n">
-        <v>410.3190544657845</v>
+        <v>306.0214688121666</v>
       </c>
       <c r="Q27" t="n">
         <v>221.0573514940586</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.75351294681087</v>
+        <v>67.75351294681086</v>
       </c>
       <c r="K28" t="n">
         <v>183.9374364516646</v>
@@ -36771,7 +36771,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.87592130828487</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>317.5928051819474</v>
+        <v>217.5158176618534</v>
       </c>
       <c r="L30" t="n">
         <v>489.0673626675739</v>
       </c>
       <c r="M30" t="n">
-        <v>362.9620150728665</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N30" t="n">
-        <v>176.2409577326731</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O30" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P30" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584732</v>
       </c>
       <c r="Q30" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820947</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.75351294681087</v>
+        <v>67.7535129468109</v>
       </c>
       <c r="K31" t="n">
         <v>183.9374364516646</v>
@@ -37005,10 +37005,10 @@
         <v>255.7412552866359</v>
       </c>
       <c r="P31" t="n">
-        <v>208.2085295676596</v>
+        <v>208.2085295676597</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.87592130828487</v>
+        <v>87.8759213082849</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K33" t="n">
-        <v>290.3147251289581</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L33" t="n">
         <v>489.0673626675739</v>
@@ -37160,13 +37160,13 @@
         <v>655.5833320762267</v>
       </c>
       <c r="O33" t="n">
-        <v>138.7818072850772</v>
+        <v>321.5810149679369</v>
       </c>
       <c r="P33" t="n">
         <v>91.85628582584732</v>
       </c>
       <c r="Q33" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820947</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>70.76249425071106</v>
       </c>
       <c r="K34" t="n">
-        <v>184.5158485739505</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L34" t="n">
-        <v>269.019965754229</v>
+        <v>269.0199657542291</v>
       </c>
       <c r="M34" t="n">
-        <v>289.0267647084623</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N34" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O34" t="n">
         <v>258.750236590536</v>
@@ -37245,7 +37245,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.884902612185</v>
+        <v>17.69183917985808</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>317.5928051819474</v>
+        <v>292.9153682986459</v>
       </c>
       <c r="L36" t="n">
-        <v>118.2270173641148</v>
+        <v>489.0673626675739</v>
       </c>
       <c r="M36" t="n">
         <v>623.2228086989692</v>
@@ -37397,13 +37397,13 @@
         <v>655.5833320762267</v>
       </c>
       <c r="O36" t="n">
-        <v>163.8813038956097</v>
+        <v>138.7818072850772</v>
       </c>
       <c r="P36" t="n">
         <v>410.3190544657845</v>
       </c>
       <c r="Q36" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820947</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.76249425071106</v>
+        <v>70.76249425071107</v>
       </c>
       <c r="K37" t="n">
         <v>186.9464177555648</v>
@@ -37476,13 +37476,13 @@
         <v>289.8795501442863</v>
       </c>
       <c r="O37" t="n">
-        <v>258.750236590536</v>
+        <v>258.7502365905361</v>
       </c>
       <c r="P37" t="n">
-        <v>138.0244474392329</v>
+        <v>138.0244474392325</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.88490261218506</v>
+        <v>90.88490261218507</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K39" t="n">
-        <v>53.12756816936874</v>
+        <v>317.5928051819474</v>
       </c>
       <c r="L39" t="n">
-        <v>489.0673626675739</v>
+        <v>143.3265139746474</v>
       </c>
       <c r="M39" t="n">
         <v>623.2228086989692</v>
       </c>
       <c r="N39" t="n">
-        <v>180.4454011191493</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O39" t="n">
-        <v>532.6441265618066</v>
+        <v>138.7818072850772</v>
       </c>
       <c r="P39" t="n">
         <v>410.3190544657845</v>
@@ -37704,10 +37704,10 @@
         <v>186.9464177555647</v>
       </c>
       <c r="L40" t="n">
-        <v>195.8269023219038</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M40" t="n">
-        <v>289.0267647084623</v>
+        <v>215.8337012761371</v>
       </c>
       <c r="N40" t="n">
         <v>289.8795501442862</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.6497713946496</v>
+        <v>175.6497713946493</v>
       </c>
       <c r="K41" t="n">
         <v>385.2179235495885</v>
@@ -37795,7 +37795,7 @@
         <v>523.1178374893855</v>
       </c>
       <c r="P41" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084481</v>
       </c>
       <c r="Q41" t="n">
         <v>228.7001571631555</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>53.12756816936874</v>
@@ -37868,16 +37868,16 @@
         <v>623.2228086989692</v>
       </c>
       <c r="N42" t="n">
-        <v>180.4454011191493</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O42" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P42" t="n">
-        <v>410.3190544657845</v>
+        <v>256.2445353183322</v>
       </c>
       <c r="Q42" t="n">
-        <v>221.0573514940586</v>
+        <v>10.98006375820947</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>53.12756816936874</v>
       </c>
       <c r="L45" t="n">
-        <v>489.0673626675739</v>
+        <v>332.3922003504337</v>
       </c>
       <c r="M45" t="n">
-        <v>157.5177449489692</v>
+        <v>623.2228086989692</v>
       </c>
       <c r="N45" t="n">
-        <v>646.1504648691492</v>
+        <v>655.5833320762267</v>
       </c>
       <c r="O45" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P45" t="n">
-        <v>410.3190544657845</v>
+        <v>91.85628582584732</v>
       </c>
       <c r="Q45" t="n">
         <v>221.0573514940586</v>
